--- a/test list_Ha2.xlsx
+++ b/test list_Ha2.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -286,9 +286,6 @@
     <t>Create request</t>
   </si>
   <si>
-    <t>Request change ip, return ip, return ip --&gt; lusc click chon thi click vao hang se select duoc</t>
-  </si>
-  <si>
     <t>Maấy cái required</t>
   </si>
   <si>
@@ -458,6 +455,9 @@
   </si>
   <si>
     <t>Test lai realtime. Check trang thai truoc khi xu ly request</t>
+  </si>
+  <si>
+    <t>Request change ip, return ip, return ip --&gt; lúc click chon thi click vao hang se select duoc</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -506,6 +506,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -519,7 +525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -568,6 +574,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -575,10 +605,10 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -616,14 +646,20 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:F91" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A2:F91"/>
+  <autoFilter ref="A2:F91">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Pending"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="6">
     <tableColumn id="1" name="No" dataDxfId="5"/>
     <tableColumn id="2" name="Function" dataDxfId="4"/>
     <tableColumn id="3" name="Description" dataDxfId="3"/>
     <tableColumn id="4" name="Assignee" dataDxfId="2"/>
-    <tableColumn id="5" name="Status" dataDxfId="1"/>
-    <tableColumn id="6" name="Column1" dataDxfId="0"/>
+    <tableColumn id="5" name="Status" dataDxfId="0"/>
+    <tableColumn id="6" name="Column1" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -895,8 +931,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,10 +964,10 @@
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="10" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -948,7 +984,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -963,7 +999,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -980,7 +1016,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="10" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="10" customFormat="1" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>4</v>
       </c>
@@ -995,10 +1031,10 @@
         <v>46</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="10" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="10" customFormat="1" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -1013,10 +1049,10 @@
         <v>46</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -1031,7 +1067,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -1049,7 +1085,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="61.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -1067,7 +1103,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -1085,7 +1121,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -1100,7 +1136,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -1118,7 +1154,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -1136,7 +1172,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -1154,7 +1190,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="7" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -1169,7 +1205,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -1184,55 +1220,55 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+    <row r="18" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>17</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>18</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" s="7" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>19</v>
       </c>
@@ -1247,7 +1283,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -1262,7 +1298,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -1277,7 +1313,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="3" customFormat="1" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>22</v>
       </c>
@@ -1292,7 +1328,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>23</v>
       </c>
@@ -1307,7 +1343,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -1322,7 +1358,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>25</v>
       </c>
@@ -1337,7 +1373,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -1348,7 +1384,7 @@
         <v>53</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F28" s="2"/>
     </row>
@@ -1362,12 +1398,12 @@
       <c r="C29" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="21" t="s">
         <v>8</v>
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="3" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -1381,7 +1417,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="3" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -1395,7 +1431,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1403,13 +1439,13 @@
         <v>54</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E32" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -1420,7 +1456,7 @@
         <v>56</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F33" s="2"/>
     </row>
@@ -1434,12 +1470,12 @@
       <c r="C34" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="21" t="s">
         <v>8</v>
       </c>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -1454,7 +1490,7 @@
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -1469,7 +1505,7 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -1484,7 +1520,7 @@
       </c>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -1499,25 +1535,25 @@
       </c>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
+    <row r="39" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="D39" s="2"/>
+      <c r="E39" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="7" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -1525,17 +1561,17 @@
         <v>66</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6" t="s">
         <v>46</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="7" customFormat="1" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>42</v>
       </c>
@@ -1543,14 +1579,14 @@
         <v>67</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>43</v>
       </c>
@@ -1562,10 +1598,10 @@
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>44</v>
       </c>
@@ -1581,7 +1617,7 @@
       </c>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>45</v>
       </c>
@@ -1596,7 +1632,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>46</v>
       </c>
@@ -1611,7 +1647,7 @@
       </c>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" s="10" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>47</v>
       </c>
@@ -1623,10 +1659,10 @@
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
         <v>48</v>
       </c>
@@ -1641,22 +1677,23 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
+    <row r="48" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
         <v>49</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D48" s="2"/>
+      <c r="E48" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>50</v>
       </c>
@@ -1671,7 +1708,7 @@
       </c>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
         <v>51</v>
       </c>
@@ -1686,35 +1723,36 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="6">
+    <row r="51" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="17">
         <v>52</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6" t="s">
+      <c r="D51" s="17"/>
+      <c r="E51" s="20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="6">
+    <row r="52" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
         <v>53</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" s="10" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
@@ -1724,74 +1762,74 @@
         <v>85</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="D53" s="9"/>
-      <c r="E53" s="9" t="s">
+      <c r="E53" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>55</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="E54" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>56</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="17">
+        <v>57</v>
+      </c>
+      <c r="B56" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F55" s="2"/>
-    </row>
-    <row r="56" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="9">
-        <v>57</v>
-      </c>
-      <c r="B56" s="10" t="s">
+      <c r="C56" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="D56" s="17"/>
+      <c r="E56" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="17">
+        <v>58</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9" t="s">
+      <c r="D57" s="17"/>
+      <c r="E57" s="20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
-        <v>58</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="2"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>59</v>
       </c>
@@ -1799,14 +1837,14 @@
         <v>50</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>60</v>
       </c>
@@ -1814,29 +1852,29 @@
         <v>51</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>61</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="E60" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>62</v>
       </c>
@@ -1844,85 +1882,86 @@
         <v>68</v>
       </c>
       <c r="C61" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>63</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="C62" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="1:6" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="17">
+        <v>64</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D63" s="17"/>
+      <c r="E63" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F61" s="2"/>
-    </row>
-    <row r="62" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="6">
-        <v>63</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="5">
-        <v>64</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" s="2"/>
-    </row>
-    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>65</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E64" s="5" t="s">
+      <c r="E64" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="9">
+        <v>66</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D65" s="9"/>
+      <c r="E65" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F64" s="2"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="5">
-        <v>66</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F65" s="2"/>
-    </row>
-    <row r="66" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="6">
+    </row>
+    <row r="66" spans="1:6" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
         <v>67</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C66" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C66" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6" t="s">
+      <c r="D66" s="9"/>
+      <c r="E66" s="22" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1931,30 +1970,31 @@
         <v>68</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C67" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D67" s="6"/>
+      <c r="E67" s="23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>69</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="6">
-        <v>69</v>
-      </c>
-      <c r="B68" s="7" t="s">
+      <c r="C68" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C68" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
@@ -1964,22 +2004,22 @@
         <v>33</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E69" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E69" s="21" t="s">
         <v>8</v>
       </c>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>71</v>
       </c>
       <c r="B70" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C70" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>123</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6" t="s">
@@ -1994,14 +2034,14 @@
         <v>5</v>
       </c>
       <c r="C71" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D71" s="14"/>
+      <c r="E71" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F71" s="15" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2009,107 +2049,107 @@
         <v>74</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="E72" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="2"/>
+    </row>
+    <row r="73" spans="1:6" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="9">
+        <v>75</v>
+      </c>
+      <c r="B73" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="C73" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D73" s="9"/>
+      <c r="E73" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F72" s="2"/>
-    </row>
-    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="5">
-        <v>75</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F73" s="2"/>
-    </row>
-    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>76</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" s="7" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>77</v>
       </c>
       <c r="B75" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C75" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>132</v>
       </c>
       <c r="D75" s="6"/>
       <c r="E75" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>78</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="E76" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F76" s="2"/>
+    </row>
+    <row r="77" spans="1:6" s="10" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="9">
+        <v>79</v>
+      </c>
+      <c r="B77" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="E76" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" s="2"/>
-    </row>
-    <row r="77" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="6">
-        <v>79</v>
-      </c>
-      <c r="B77" s="7" t="s">
+      <c r="C77" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C77" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D77" s="9"/>
+      <c r="E77" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>80</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>81</v>
       </c>
@@ -2117,40 +2157,40 @@
         <v>19</v>
       </c>
       <c r="C79" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F79" s="2"/>
+    </row>
+    <row r="80" spans="1:6" s="10" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="9">
+        <v>82</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D80" s="9"/>
+      <c r="E80" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="9">
+        <v>83</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C81" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="E79" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F79" s="2"/>
-    </row>
-    <row r="80" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="6">
-        <v>82</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="6">
-        <v>83</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6" t="s">
+      <c r="D81" s="9"/>
+      <c r="E81" s="22" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2159,12 +2199,12 @@
         <v>84</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E82" s="5" t="s">
+      <c r="E82" s="21" t="s">
         <v>8</v>
       </c>
       <c r="F82" s="2"/>
@@ -2177,63 +2217,63 @@
         <v>47</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E83" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E83" s="21" t="s">
         <v>8</v>
       </c>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>86</v>
       </c>
       <c r="C84" s="3"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>87</v>
       </c>
       <c r="C85" s="3"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>88</v>
       </c>
       <c r="C86" s="3"/>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>89</v>
       </c>
       <c r="C87" s="3"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>90</v>
       </c>
       <c r="C88" s="3"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>91</v>
       </c>
       <c r="C89" s="3"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>92</v>
       </c>
       <c r="C90" s="3"/>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>93</v>
       </c>
@@ -2242,7 +2282,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B92" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/test list_Ha2.xlsx
+++ b/test list_Ha2.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\new place\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tien Huynh\Desktop\Data\GitHub_20012016\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="QA" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="169">
   <si>
     <t>No</t>
   </si>
@@ -513,12 +513,33 @@
   </si>
   <si>
     <t>hiện tại, các datacenter theo tiêu chuẩn thì ngta sẽ làm theo mô hình này, đảm bảo việc trực ca luân phiên nhau, số ca và số kíp thích hợp vừa đủ</t>
+  </si>
+  <si>
+    <t>Vào database xóa bảng AssignedShift, rồi chạy lại project</t>
+  </si>
+  <si>
+    <t>Ko, vì hệ thống select theo size</t>
+  </si>
+  <si>
+    <t>Khi IP ko còn bị tấn công, có thể sử dụng lại bt</t>
+  </si>
+  <si>
+    <t>từ serial number, partnumber có thể search ra đc cấu hình của server (đối với server hiệu)</t>
+  </si>
+  <si>
+    <t>Ai nhấn nút submit trước thì người đó được assign, người kia phải chọn lại =&gt; demo cho hội đồng</t>
+  </si>
+  <si>
+    <t>KO, khi khách hàng trả lại IP đó, IP trở về trạng thái Available mới block đc</t>
+  </si>
+  <si>
+    <t>ko được, vì hệ thống hiện tại là 3 ca 4 kíp, mô hình này đc sử dụng trong các datacenter theo tiêu chuẩn, 3 ca 4 kíp là thích hợp vừa đủ nhất</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2472,8 +2493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2502,6 +2523,9 @@
       <c r="B3" s="33" t="s">
         <v>146</v>
       </c>
+      <c r="C3" s="35" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="32">
@@ -2510,6 +2534,9 @@
       <c r="B4" s="33" t="s">
         <v>147</v>
       </c>
+      <c r="C4" s="35" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="32">
@@ -2537,6 +2564,9 @@
       <c r="B7" s="33" t="s">
         <v>151</v>
       </c>
+      <c r="C7" s="35" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="32">
@@ -2553,6 +2583,9 @@
       <c r="B9" s="33" t="s">
         <v>153</v>
       </c>
+      <c r="C9" s="35" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="32">
@@ -2561,6 +2594,9 @@
       <c r="B10" s="31" t="s">
         <v>154</v>
       </c>
+      <c r="C10" s="35" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="32">
@@ -2569,6 +2605,9 @@
       <c r="B11" s="33" t="s">
         <v>155</v>
       </c>
+      <c r="C11" s="35" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="32">
@@ -2600,12 +2639,15 @@
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A15" s="32">
         <v>13</v>
       </c>
       <c r="B15" s="33" t="s">
         <v>159</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">

--- a/test list_Ha2.xlsx
+++ b/test list_Ha2.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="QA" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="162">
   <si>
     <t>No</t>
   </si>
@@ -458,13 +459,67 @@
   </si>
   <si>
     <t>Request change ip, return ip, return ip --&gt; lúc click chon thi click vao hang se select duoc</t>
+  </si>
+  <si>
+    <t>Câu hỏi</t>
+  </si>
+  <si>
+    <t>Câu trả lời</t>
+  </si>
+  <si>
+    <t>Lúc assign ip và assign location, nếu có người khác cũng đang xử lý request khác liên quan đến add server, và add trùng ip hoặc location  thì sao?</t>
+  </si>
+  <si>
+    <t>Nếu hội đồng kêu xóa bảng assignedshift và generate lại thì sao. Làm trình tự như thế nào?</t>
+  </si>
+  <si>
+    <t>Đối với offline request, khách hàng tạo request đem đến ngay trong ngày được không?  Nếu tg xử lý vượt quá thời gian khách hẹn đến thì sao?</t>
+  </si>
+  <si>
+    <t>Gọi điện xác nhận lại với khách hàng một lần nữa. Nếu khách hàng gửi nhầm thì sẽ reject request và yêu cầu khách hàng hẹn lại vào thời điểm thích hợp</t>
+  </si>
+  <si>
+    <t>Biên bản bàn giao kỹ thuật để làm gì? Có tác dụng gì?</t>
+  </si>
+  <si>
+    <t>Lúc assign location, chọn kích thước khác với kích thước của server được ko?</t>
+  </si>
+  <si>
+    <t>Khách hàng thuê bao nhiêu IP và rack cũng được hả? Không có giới hạn về tiền và số lượng ?</t>
+  </si>
+  <si>
+    <t>Trường hợp nào blockIP? Khi khách hàng đang sử dụng IP có được blockIP ko?</t>
+  </si>
+  <si>
+    <t>Khi nào quy định là sẽ unblock IP?</t>
+  </si>
+  <si>
+    <t>Serial number và partnumber là gì? Có tác dụng gì? Không có thì làm sao phân biệt được server này với server khác.</t>
+  </si>
+  <si>
+    <t>Có set serialnumber và partnumber là unique không?</t>
+  </si>
+  <si>
+    <t>Lúc khách hàng gọi điện nhờ restart server, tại sao không làm 1 request?</t>
+  </si>
+  <si>
+    <t>trả lời khéo rằng: thứ nhất là do nhóm chỉ còn 2 người nên request về restart server chúng em ko làm, và thứ 2, thực tế thì việc restart KH yêu cầu qua dt nó sẽ nhanh hơn là làm request, nhiều khi ngta đang ở đâu đó ko có máy để tạo request mà việc restart lại server thì cần phải nhanh</t>
+  </si>
+  <si>
+    <t>Bây giờ tôi muốn 3 ca 7 kiếp được không? Hệ thống sẽ generate lại ca trực bằng cách nào?</t>
+  </si>
+  <si>
+    <t>Mô hình 3 ca 4 kíp là gì? Tại sao người ta dùng mô hình này</t>
+  </si>
+  <si>
+    <t>hiện tại, các datacenter theo tiêu chuẩn thì ngta sẽ làm theo mô hình này, đảm bảo việc trực ca luân phiên nhau, số ca và số kíp thích hợp vừa đủ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,6 +534,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -531,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -616,12 +684,88 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -663,7 +807,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:F91" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:F91" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A2:F91">
     <filterColumn colId="4">
       <filters>
@@ -672,12 +816,24 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" name="No" dataDxfId="5"/>
-    <tableColumn id="2" name="Function" dataDxfId="4"/>
-    <tableColumn id="3" name="Description" dataDxfId="3"/>
-    <tableColumn id="4" name="Assignee" dataDxfId="2"/>
-    <tableColumn id="5" name="Status" dataDxfId="1"/>
-    <tableColumn id="6" name="Column1" dataDxfId="0"/>
+    <tableColumn id="1" name="No" dataDxfId="8"/>
+    <tableColumn id="2" name="Function" dataDxfId="7"/>
+    <tableColumn id="3" name="Description" dataDxfId="6"/>
+    <tableColumn id="4" name="Assignee" dataDxfId="5"/>
+    <tableColumn id="5" name="Status" dataDxfId="4"/>
+    <tableColumn id="6" name="Column1" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:C23" totalsRowShown="0">
+  <autoFilter ref="A2:C23"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="No" dataDxfId="2"/>
+    <tableColumn id="2" name="Câu hỏi" dataDxfId="1"/>
+    <tableColumn id="3" name="Câu trả lời" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -949,7 +1105,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
@@ -2310,4 +2466,193 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="32"/>
+    <col min="2" max="2" width="63.5703125" style="31" customWidth="1"/>
+    <col min="3" max="3" width="49.140625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="32">
+        <v>1</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="32">
+        <v>2</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="32">
+        <v>3</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="32">
+        <v>4</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="32">
+        <v>5</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="32">
+        <v>6</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="32">
+        <v>7</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="32">
+        <v>8</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="32">
+        <v>9</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="32">
+        <v>10</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="32">
+        <v>11</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="32">
+        <v>12</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="32">
+        <v>13</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="32">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="32">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="32">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="32">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/test list_Ha2.xlsx
+++ b/test list_Ha2.xlsx
@@ -481,7 +481,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -512,6 +512,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -525,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -597,6 +603,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -605,10 +623,10 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -658,8 +676,8 @@
     <tableColumn id="2" name="Function" dataDxfId="4"/>
     <tableColumn id="3" name="Description" dataDxfId="3"/>
     <tableColumn id="4" name="Assignee" dataDxfId="2"/>
-    <tableColumn id="5" name="Status" dataDxfId="0"/>
-    <tableColumn id="6" name="Column1" dataDxfId="1"/>
+    <tableColumn id="5" name="Status" dataDxfId="1"/>
+    <tableColumn id="6" name="Column1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -931,8 +949,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,33 +1238,33 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
+    <row r="18" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25">
         <v>16</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="20" t="s">
+      <c r="D18" s="25"/>
+      <c r="E18" s="28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
+    <row r="19" spans="1:6" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="25">
         <v>17</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="20" t="s">
+      <c r="D19" s="25"/>
+      <c r="E19" s="28" t="s">
         <v>8</v>
       </c>
     </row>

--- a/test list_Ha2.xlsx
+++ b/test list_Ha2.xlsx
@@ -949,8 +949,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1253,7 +1253,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="26" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25">
         <v>17</v>
       </c>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="28" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>58</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="F34" s="2"/>
     </row>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" s="18" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="17">
         <v>64</v>
       </c>
@@ -1935,7 +1935,7 @@
       </c>
       <c r="D63" s="17"/>
       <c r="E63" s="20" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -1968,7 +1968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:6" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" s="10" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9">
         <v>67</v>
       </c>
@@ -1980,10 +1980,10 @@
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" s="7" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>68</v>
       </c>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="23" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>70</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>120</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F69" s="2"/>
     </row>
@@ -2197,7 +2197,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:6" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" s="10" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="9">
         <v>83</v>
       </c>
@@ -2209,10 +2209,10 @@
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>84</v>
       </c>
@@ -2223,11 +2223,11 @@
         <v>141</v>
       </c>
       <c r="E82" s="21" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>85</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>142</v>
       </c>
       <c r="E83" s="21" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F83" s="2"/>
     </row>
